--- a/sumJAVA.xlsx
+++ b/sumJAVA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <x:si>
     <x:t>Document Date</x:t>
   </x:si>
@@ -70,6 +70,171 @@
     <x:t>ออลล์ นาว โลจิสติกส์</x:t>
   </x:si>
   <x:si>
+    <x:t>ส่งสินค้าผิดร้าน ยก-6551  วันที่ 1.3.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ยก-6551</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> วันที่ 1.3.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒภ-2165 วันที่ 25/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒภ-2165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 25/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 3ฒถ-1537 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ฒถ-1537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒท-1148 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒท-1148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒพ-6551 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒพ-6551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒพ-6551 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด บพ-6390 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>บพ-6390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒพ-8391 วันที่ 04/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒพ-8391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 04/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒภ-2168 วันที่ 04/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒภ-2168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒภ-2165 วันที่ 06/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 06/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 3ฒถ-1537 วันที่ 07/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 07/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒพ-8390 วันที่ 26/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒพ-8390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 26/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒพ-8390 วันที่ 07/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒภ-2167 วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒภ-2167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒท-6918 วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒท-6918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว บพ-6390 วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒภ-2168 วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒท-5181 วันที่ 08/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒท-5181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังสูญหายปรับ200บาท/ชุด 2ฒพ-8391 วันที่ 10/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 10/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒผ-9224 วันที่ 29/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒผ-9224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 29/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารสูญหาย/ไม่ครบปรับ200บาท/ชุด ผธ-3699 วันที่ 29/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ผธ-3699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด บพ-2326 วันที่ 01/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>บพ-2326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 01/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 3ฒก-918 วันที่ 02/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ฒก-918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>วันที่ 02/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถขนส่งเข้ารับงานที่คลังสินค้าล่าช้าเกินกว่า15นาทีปรับ200บาท/เที่ยว 2ฒภ-2167 วันที่ 03/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ส่งสินค้าสลับร้าน สาย 293  ทะเบียน 2ตถ-3248  วันที่ 07/03/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ทะเบียน 2ตถ-3248</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> วันที่ 07/03/2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>ลัง CDC ชำรุด/สูญหาย_รอบ 22/2/67-7/3/67_2024-02-27 _1156_ 3ฒล-8467 12032024</x:t>
   </x:si>
   <x:si>
@@ -533,156 +698,6 @@
   </x:si>
   <x:si>
     <x:t>ยธ-1844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ขนส่งลืมเอกสารไว้ที่ร้าน(จำนวนกระบะครบ)  2ฒฮ-7171  วันที่ 21/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒฮ-7171</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 21/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ขนส่งลืมเอกสารไว้ที่ร้าน(จำนวนกระบะครบ)  2ฒจ-482  วันที่ 22/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒจ-482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งส่งสินค้าสลับร้านสาย512 ทะเบียนผว-5577 วันที่21/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนผว-5577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่21/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย106 ทะเบียนผว-5441 วันที่24/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนผว-5441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่24/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย409 ทะเบียนผว-5441 วันที่28/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่28/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย221 ทะเบียนผว-4685 วันที่29/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนผว-4685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่29/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย402 ทะเบียนยก-2886 วันที่31/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนยก-2886</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่31/1/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย120 ทะเบียนผว-5441 วันที่12/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่12/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย101 ทะเบียนผว-5949 วันที่14/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนผว-5949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่14/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย308 ทะเบียนผว-5441 วันที่18/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่18/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย709 ทะเบียนผว-4685 วันที่19/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>วันที่19/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พนักงานขนส่งเข้ารับงานที่คลังสินค้าล่าช้าสาย113 ทะเบียนยก-4009 วันที่19/2/2567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ทะเบียนยก-4009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ลัง สินค้า สูญหาย/ชำรุด  500 บาท  บษ-1639  วันที่ 11/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>บษ-1639</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 11/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ค่าเช่าลังแก้ยอด  40 บาท  70-5954  วันที่ 13/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70-5954</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 13/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ลัง สินค้า สูญหาย/ชำรุด 500 บาท  70-5954  วันที่ 15/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 15/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ค่าเช่าลังแก้ยอด 20 บาท  1ฒษ-1454  วันที่ 19/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1ฒษ-1454</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 19/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รายการที่ปรับล่าช้า B.1 200 บาท  บษ-1639  วันที่ 07/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 07/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รายการที่ปรับล่าช้า B.1 200 บาท  บฉ-5544  วันที่ 10/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>บฉ-5544</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> วันที่ 10/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รายการที่ปรับล่าช้า B.1 200 บาท  2ฒท-836  วันที่ 13/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒท-836</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รายการที่ปรับล่าช้า B.1 200 บาท  2ฒท-835  วันที่ 15/02/67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒท-835</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1033,7 +1048,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:P96"/>
+  <x:dimension ref="A1:P101"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1091,13 +1106,13 @@
     </x:row>
     <x:row r="2" spans="1:16">
       <x:c r="A2" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240315</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>110495082</x:v>
+        <x:v>110495516</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240315</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
         <x:v>40900</x:v>
@@ -1106,7 +1121,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356457</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>16</x:v>
@@ -1118,33 +1133,33 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>3400034036</x:v>
+        <x:v>3400034487</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="n">
-        <x:v>12032024</x:v>
+      <x:c r="P2" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:16">
       <x:c r="A3" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>110495083</x:v>
+        <x:v>110495174</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>40900</x:v>
@@ -1153,7 +1168,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>16</x:v>
@@ -1162,36 +1177,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
       <x:c r="L3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>3400034037</x:v>
+        <x:v>3400034344</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:16">
       <x:c r="A4" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
-        <x:v>110495086</x:v>
+        <x:v>110495175</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>40900</x:v>
@@ -1200,7 +1215,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>16</x:v>
@@ -1209,36 +1224,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>3400034040</x:v>
+        <x:v>3400034346</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:16">
       <x:c r="A5" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>110495092</x:v>
+        <x:v>110495176</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>40900</x:v>
@@ -1247,7 +1262,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>16</x:v>
@@ -1256,36 +1271,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M5" s="0" t="n">
-        <x:v>3400034046</x:v>
+        <x:v>3400034348</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:16">
       <x:c r="A6" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>110495094</x:v>
+        <x:v>110495177</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>40900</x:v>
@@ -1294,7 +1309,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>16</x:v>
@@ -1303,36 +1318,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="n">
+        <x:v>3400034350</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P6" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="n">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="L6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="n">
-        <x:v>3400034048</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="n">
-        <x:v>500</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P6" s="0" t="n">
-        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:16">
       <x:c r="A7" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>110495095</x:v>
+        <x:v>110495178</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>40900</x:v>
@@ -1341,7 +1356,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>16</x:v>
@@ -1350,36 +1365,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>3400034049</x:v>
+        <x:v>3400034352</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P7" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P7" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:16">
       <x:c r="A8" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
-        <x:v>110495096</x:v>
+        <x:v>110495179</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
         <x:v>40900</x:v>
@@ -1388,7 +1403,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>16</x:v>
@@ -1397,36 +1412,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
-        <x:v>3400034050</x:v>
+        <x:v>3400034353</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="P8" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="P8" s="0" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:16">
       <x:c r="A9" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
-        <x:v>110495111</x:v>
+        <x:v>110495180</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>40900</x:v>
@@ -1435,7 +1450,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
         <x:v>16</x:v>
@@ -1444,36 +1459,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>3400034065</x:v>
+        <x:v>3400034354</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P9" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:16">
       <x:c r="A10" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>110495112</x:v>
+        <x:v>110495181</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>40900</x:v>
@@ -1482,7 +1497,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
         <x:v>16</x:v>
@@ -1491,36 +1506,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>3400034066</x:v>
+        <x:v>3400034355</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P10" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P10" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:16">
       <x:c r="A11" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>110495113</x:v>
+        <x:v>110495183</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>40900</x:v>
@@ -1529,7 +1544,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>16</x:v>
@@ -1538,36 +1553,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
-        <x:v>3400034067</x:v>
+        <x:v>3400034357</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P11" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:16">
       <x:c r="A12" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>110495114</x:v>
+        <x:v>110495184</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
         <x:v>40900</x:v>
@@ -1576,7 +1591,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
         <x:v>16</x:v>
@@ -1585,7 +1600,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
         <x:v>200</x:v>
@@ -1594,27 +1609,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>3400034068</x:v>
+        <x:v>3400034358</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P12" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P12" s="0" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:16">
       <x:c r="A13" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>110495115</x:v>
+        <x:v>110495185</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>40900</x:v>
@@ -1623,7 +1638,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
         <x:v>16</x:v>
@@ -1632,36 +1647,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>3400034069</x:v>
+        <x:v>3400034359</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="P13" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P13" s="0" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:16">
       <x:c r="A14" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>110495118</x:v>
+        <x:v>110495186</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>40900</x:v>
@@ -1670,7 +1685,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
         <x:v>16</x:v>
@@ -1679,36 +1694,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K14" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>3400034072</x:v>
+        <x:v>3400034360</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="P14" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:16">
       <x:c r="A15" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>110495119</x:v>
+        <x:v>110495188</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>40900</x:v>
@@ -1717,7 +1732,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>16</x:v>
@@ -1726,7 +1741,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K15" s="0" t="n">
         <x:v>200</x:v>
@@ -1735,27 +1750,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>3400034073</x:v>
+        <x:v>3400034362</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="O15" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P15" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16">
       <x:c r="A16" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>110495120</x:v>
+        <x:v>110495189</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>40900</x:v>
@@ -1764,7 +1779,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
         <x:v>16</x:v>
@@ -1773,36 +1788,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>3400034074</x:v>
+        <x:v>3400034363</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:16">
       <x:c r="A17" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>110495124</x:v>
+        <x:v>110495190</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>40900</x:v>
@@ -1811,7 +1826,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
         <x:v>16</x:v>
@@ -1820,36 +1835,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
-        <x:v>620.5</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>3400034078</x:v>
+        <x:v>3400034364</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
-        <x:v>620.5</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="P17" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:16">
       <x:c r="A18" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
-        <x:v>110495125</x:v>
+        <x:v>110495191</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>40900</x:v>
@@ -1858,7 +1873,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
         <x:v>16</x:v>
@@ -1867,36 +1882,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>3400034079</x:v>
+        <x:v>3400034365</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P18" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="P18" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:16">
       <x:c r="A19" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
-        <x:v>110495126</x:v>
+        <x:v>110495192</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>40900</x:v>
@@ -1905,7 +1920,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>16</x:v>
@@ -1914,36 +1929,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>3400034080</x:v>
+        <x:v>3400034366</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="P19" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:16">
       <x:c r="A20" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
-        <x:v>110495127</x:v>
+        <x:v>110495193</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
         <x:v>40900</x:v>
@@ -1952,7 +1967,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
         <x:v>16</x:v>
@@ -1961,36 +1976,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
-        <x:v>418</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
-        <x:v>3400034081</x:v>
+        <x:v>3400034367</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
-        <x:v>418</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="P20" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P20" s="0" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:16">
       <x:c r="A21" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B21" s="0" t="n">
-        <x:v>110495128</x:v>
+        <x:v>110495197</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>40900</x:v>
@@ -1999,7 +2014,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
         <x:v>16</x:v>
@@ -2008,36 +2023,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>3400034082</x:v>
+        <x:v>3400034371</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O21" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P21" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="P21" s="0" t="s">
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:16">
       <x:c r="A22" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
-        <x:v>110495130</x:v>
+        <x:v>110495198</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>40900</x:v>
@@ -2046,7 +2061,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>16</x:v>
@@ -2055,36 +2070,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>3400034084</x:v>
+        <x:v>3400034372</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O22" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="P22" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="s">
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:16">
       <x:c r="A23" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>110495131</x:v>
+        <x:v>110495199</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>20240312</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>40900</x:v>
@@ -2093,7 +2108,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
-        <x:v>356485</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
         <x:v>16</x:v>
@@ -2102,36 +2117,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>3400034085</x:v>
+        <x:v>3400034373</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P23" s="0" t="n">
-        <x:v>12032024</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P23" s="0" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:16">
       <x:c r="A24" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>110494876</x:v>
+        <x:v>110495200</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>40900</x:v>
@@ -2140,7 +2155,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
         <x:v>16</x:v>
@@ -2149,36 +2164,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>3400033952</x:v>
+        <x:v>3400034374</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O24" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P24" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:16">
       <x:c r="A25" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>110494877</x:v>
+        <x:v>110495201</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>40900</x:v>
@@ -2187,7 +2202,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356630</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
         <x:v>16</x:v>
@@ -2196,36 +2211,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
-        <x:v>3400033954</x:v>
+        <x:v>3400034375</x:v>
       </x:c>
       <x:c r="N25" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:16">
       <x:c r="A26" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>110494878</x:v>
+        <x:v>110495275</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240314</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>40900</x:v>
@@ -2234,7 +2249,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356680</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
         <x:v>16</x:v>
@@ -2243,36 +2258,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>3400033956</x:v>
+        <x:v>3400034443</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="O26" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P26" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:16">
       <x:c r="A27" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>110494879</x:v>
+        <x:v>110495082</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>40900</x:v>
@@ -2281,7 +2296,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
         <x:v>16</x:v>
@@ -2290,36 +2305,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="L27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>3400033958</x:v>
+        <x:v>3400034036</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="P27" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P27" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:16">
       <x:c r="A28" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>110494880</x:v>
+        <x:v>110495083</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>40900</x:v>
@@ -2328,7 +2343,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
         <x:v>16</x:v>
@@ -2337,36 +2352,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>3400033960</x:v>
+        <x:v>3400034037</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="P28" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="P28" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:16">
       <x:c r="A29" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
-        <x:v>110494881</x:v>
+        <x:v>110495086</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>40900</x:v>
@@ -2375,7 +2390,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
         <x:v>16</x:v>
@@ -2384,36 +2399,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K29" s="0" t="n">
-        <x:v>1885</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
-        <x:v>3400033962</x:v>
+        <x:v>3400034040</x:v>
       </x:c>
       <x:c r="N29" s="0" t="n">
-        <x:v>1885</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="P29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:16">
       <x:c r="A30" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
-        <x:v>110494882</x:v>
+        <x:v>110495092</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>40900</x:v>
@@ -2422,7 +2437,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
         <x:v>16</x:v>
@@ -2431,36 +2446,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K30" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>3400033963</x:v>
+        <x:v>3400034046</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="P30" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P30" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:16">
       <x:c r="A31" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
-        <x:v>110494883</x:v>
+        <x:v>110495094</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>40900</x:v>
@@ -2469,7 +2484,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
         <x:v>16</x:v>
@@ -2478,36 +2493,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K31" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>3400033964</x:v>
+        <x:v>3400034048</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O31" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="P31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P31" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:16">
       <x:c r="A32" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
-        <x:v>110494884</x:v>
+        <x:v>110495095</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>40900</x:v>
@@ -2516,7 +2531,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
         <x:v>16</x:v>
@@ -2525,36 +2540,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="K32" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>3400033965</x:v>
+        <x:v>3400034049</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="P32" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P32" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:16">
       <x:c r="A33" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>110494885</x:v>
+        <x:v>110495096</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>40900</x:v>
@@ -2563,7 +2578,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
         <x:v>16</x:v>
@@ -2572,36 +2587,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K33" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="L33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>3400033966</x:v>
+        <x:v>3400034050</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="P33" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:16">
       <x:c r="A34" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>110494887</x:v>
+        <x:v>110495111</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>40900</x:v>
@@ -2610,7 +2625,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
         <x:v>16</x:v>
@@ -2619,36 +2634,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K34" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M34" s="0" t="n">
-        <x:v>3400033968</x:v>
+        <x:v>3400034065</x:v>
       </x:c>
       <x:c r="N34" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O34" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="P34" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:16">
       <x:c r="A35" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>110494888</x:v>
+        <x:v>110495112</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>40900</x:v>
@@ -2657,7 +2672,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
         <x:v>16</x:v>
@@ -2666,36 +2681,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K35" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>3400033969</x:v>
+        <x:v>3400034066</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O35" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="P35" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:16">
       <x:c r="A36" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>110494889</x:v>
+        <x:v>110495113</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>40900</x:v>
@@ -2704,7 +2719,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
         <x:v>16</x:v>
@@ -2713,36 +2728,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K36" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>3400033970</x:v>
+        <x:v>3400034067</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O36" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="P36" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P36" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:16">
       <x:c r="A37" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
-        <x:v>110494890</x:v>
+        <x:v>110495114</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>40900</x:v>
@@ -2751,7 +2766,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
         <x:v>16</x:v>
@@ -2760,36 +2775,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>3400033971</x:v>
+        <x:v>3400034068</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="P37" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:16">
       <x:c r="A38" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>110494895</x:v>
+        <x:v>110495115</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>40900</x:v>
@@ -2798,7 +2813,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
         <x:v>16</x:v>
@@ -2807,36 +2822,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>3400033976</x:v>
+        <x:v>3400034069</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O38" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="P38" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="P38" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:16">
       <x:c r="A39" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>110494896</x:v>
+        <x:v>110495118</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>40900</x:v>
@@ -2845,7 +2860,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
         <x:v>16</x:v>
@@ -2854,36 +2869,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>3400033977</x:v>
+        <x:v>3400034072</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="P39" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="P39" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:16">
       <x:c r="A40" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>110494897</x:v>
+        <x:v>110495119</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>20240311</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>40900</x:v>
@@ -2892,7 +2907,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
-        <x:v>356646</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
         <x:v>16</x:v>
@@ -2901,36 +2916,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K40" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>3400033978</x:v>
+        <x:v>3400034073</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O40" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="P40" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:16">
       <x:c r="A41" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>110494774</x:v>
+        <x:v>110495120</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>40900</x:v>
@@ -2939,7 +2954,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
-        <x:v>356495</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
         <x:v>16</x:v>
@@ -2948,36 +2963,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="n">
+        <x:v>3400034074</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="O41" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="K41" s="0" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="L41" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M41" s="0" t="n">
-        <x:v>3400033540</x:v>
-      </x:c>
-      <x:c r="N41" s="0" t="n">
-        <x:v>300</x:v>
-      </x:c>
-      <x:c r="O41" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="P41" s="0" t="s">
-        <x:v>93</x:v>
+      <x:c r="P41" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:16">
       <x:c r="A42" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>110494862</x:v>
+        <x:v>110495124</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>40900</x:v>
@@ -2986,7 +3001,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
-        <x:v>356495</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
         <x:v>16</x:v>
@@ -2995,36 +3010,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K42" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>620.5</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>3400033628</x:v>
+        <x:v>3400034078</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>620.5</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="P42" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="P42" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:16">
       <x:c r="A43" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>110494863</x:v>
+        <x:v>110495125</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>20240310</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>40900</x:v>
@@ -3033,7 +3048,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
-        <x:v>356495</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
         <x:v>16</x:v>
@@ -3042,36 +3057,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K43" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>3400033629</x:v>
+        <x:v>3400034079</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="P43" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P43" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:16">
       <x:c r="A44" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>110494522</x:v>
+        <x:v>110495126</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>40900</x:v>
@@ -3080,7 +3095,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
         <x:v>16</x:v>
@@ -3092,33 +3107,33 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="L44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>3400033305</x:v>
+        <x:v>3400034080</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="P44" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:16">
       <x:c r="A45" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>110494523</x:v>
+        <x:v>110495127</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>40900</x:v>
@@ -3127,7 +3142,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
         <x:v>16</x:v>
@@ -3136,36 +3151,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="L45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>3400033306</x:v>
+        <x:v>3400034081</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="P45" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="P45" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:16">
       <x:c r="A46" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>110494524</x:v>
+        <x:v>110495128</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>40900</x:v>
@@ -3174,7 +3189,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
         <x:v>16</x:v>
@@ -3183,36 +3198,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>3400033307</x:v>
+        <x:v>3400034082</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:16">
       <x:c r="A47" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>110494525</x:v>
+        <x:v>110495130</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>40900</x:v>
@@ -3221,7 +3236,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
         <x:v>16</x:v>
@@ -3230,36 +3245,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>3400033308</x:v>
+        <x:v>3400034084</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O47" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="P47" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="P47" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:16">
       <x:c r="A48" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>110494526</x:v>
+        <x:v>110495131</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240312</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>40900</x:v>
@@ -3268,7 +3283,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356485</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
         <x:v>16</x:v>
@@ -3277,36 +3292,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="K48" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>3400033309</x:v>
+        <x:v>3400034085</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="P48" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="n">
+        <x:v>12032024</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:16">
       <x:c r="A49" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>110494527</x:v>
+        <x:v>110494876</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>40900</x:v>
@@ -3315,7 +3330,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
         <x:v>16</x:v>
@@ -3324,36 +3339,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="K49" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>3400033310</x:v>
+        <x:v>3400033952</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="P49" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:16">
       <x:c r="A50" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>110494528</x:v>
+        <x:v>110494877</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>40900</x:v>
@@ -3362,7 +3377,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
         <x:v>16</x:v>
@@ -3371,36 +3386,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K50" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>3400033311</x:v>
+        <x:v>3400033954</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O50" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P50" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:16">
       <x:c r="A51" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
-        <x:v>110494529</x:v>
+        <x:v>110494878</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>40900</x:v>
@@ -3409,7 +3424,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
         <x:v>16</x:v>
@@ -3418,36 +3433,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K51" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>3400033312</x:v>
+        <x:v>3400033956</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:16">
       <x:c r="A52" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>110494530</x:v>
+        <x:v>110494879</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>40900</x:v>
@@ -3456,7 +3471,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
         <x:v>16</x:v>
@@ -3465,36 +3480,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K52" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>3400033313</x:v>
+        <x:v>3400033958</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:16">
       <x:c r="A53" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>110494531</x:v>
+        <x:v>110494880</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>40900</x:v>
@@ -3503,7 +3518,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
         <x:v>16</x:v>
@@ -3512,36 +3527,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="K53" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>3400033314</x:v>
+        <x:v>3400033960</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:16">
       <x:c r="A54" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>110494533</x:v>
+        <x:v>110494881</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>40900</x:v>
@@ -3550,7 +3565,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
         <x:v>16</x:v>
@@ -3559,36 +3574,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="K54" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>1885</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>3400033316</x:v>
+        <x:v>3400033962</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>1885</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:16">
       <x:c r="A55" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>110494534</x:v>
+        <x:v>110494882</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>40900</x:v>
@@ -3597,7 +3612,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
         <x:v>16</x:v>
@@ -3606,7 +3621,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="K55" s="0" t="n">
         <x:v>20</x:v>
@@ -3615,27 +3630,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>3400033317</x:v>
+        <x:v>3400033963</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="O55" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P55" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:16">
       <x:c r="A56" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>110494535</x:v>
+        <x:v>110494883</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>40900</x:v>
@@ -3644,7 +3659,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
         <x:v>16</x:v>
@@ -3653,36 +3668,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="K56" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>3400033318</x:v>
+        <x:v>3400033964</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O56" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:16">
       <x:c r="A57" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>110494536</x:v>
+        <x:v>110494884</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>40900</x:v>
@@ -3691,7 +3706,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
         <x:v>16</x:v>
@@ -3700,36 +3715,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>3400033319</x:v>
+        <x:v>3400033965</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O57" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P57" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:16">
       <x:c r="A58" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>110494537</x:v>
+        <x:v>110494885</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>40900</x:v>
@@ -3738,7 +3753,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
         <x:v>16</x:v>
@@ -3747,36 +3762,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>3400033320</x:v>
+        <x:v>3400033966</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:16">
       <x:c r="A59" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>110494538</x:v>
+        <x:v>110494887</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>40900</x:v>
@@ -3785,7 +3800,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
         <x:v>16</x:v>
@@ -3794,36 +3809,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>3400033321</x:v>
+        <x:v>3400033968</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P59" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:16">
       <x:c r="A60" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>110494539</x:v>
+        <x:v>110494888</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>40900</x:v>
@@ -3832,7 +3847,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
         <x:v>16</x:v>
@@ -3841,22 +3856,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="K60" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>3400033322</x:v>
+        <x:v>3400033969</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O60" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P60" s="0" t="s">
         <x:v>133</x:v>
@@ -3864,13 +3879,13 @@
     </x:row>
     <x:row r="61" spans="1:16">
       <x:c r="A61" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>110494540</x:v>
+        <x:v>110494889</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>40900</x:v>
@@ -3879,7 +3894,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
         <x:v>16</x:v>
@@ -3888,36 +3903,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>3400033323</x:v>
+        <x:v>3400033970</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O61" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:16">
       <x:c r="A62" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>110494541</x:v>
+        <x:v>110494890</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>40900</x:v>
@@ -3926,7 +3941,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
         <x:v>16</x:v>
@@ -3935,7 +3950,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
         <x:v>500</x:v>
@@ -3944,27 +3959,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>3400033324</x:v>
+        <x:v>3400033971</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>500</x:v>
       </x:c>
       <x:c r="O62" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="P62" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:16">
       <x:c r="A63" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>110494542</x:v>
+        <x:v>110494895</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>40900</x:v>
@@ -3973,7 +3988,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
         <x:v>16</x:v>
@@ -3982,36 +3997,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>3400033325</x:v>
+        <x:v>3400033976</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O63" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P63" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:16">
       <x:c r="A64" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>110494544</x:v>
+        <x:v>110494896</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>40900</x:v>
@@ -4020,7 +4035,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
-        <x:v>356487</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
         <x:v>16</x:v>
@@ -4029,36 +4044,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="K64" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>3400033327</x:v>
+        <x:v>3400033977</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:16">
       <x:c r="A65" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>110494546</x:v>
+        <x:v>110494897</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240311</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>40900</x:v>
@@ -4067,7 +4082,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356646</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
         <x:v>16</x:v>
@@ -4076,36 +4091,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>3400033329</x:v>
+        <x:v>3400033978</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:16">
       <x:c r="A66" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>110494547</x:v>
+        <x:v>110494774</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>40900</x:v>
@@ -4114,7 +4129,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356495</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
         <x:v>16</x:v>
@@ -4123,36 +4138,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="L66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>3400033330</x:v>
+        <x:v>3400033540</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="O66" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P66" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:16">
       <x:c r="A67" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>110494548</x:v>
+        <x:v>110494862</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>40900</x:v>
@@ -4161,7 +4176,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356495</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
         <x:v>16</x:v>
@@ -4170,36 +4185,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="L67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>3400033331</x:v>
+        <x:v>3400033628</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:16">
       <x:c r="A68" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>110494549</x:v>
+        <x:v>110494863</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>20240308</x:v>
+        <x:v>20240310</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>40900</x:v>
@@ -4208,7 +4223,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356495</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
         <x:v>16</x:v>
@@ -4217,7 +4232,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>200</x:v>
@@ -4226,16 +4241,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>3400033332</x:v>
+        <x:v>3400033629</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:16">
@@ -4243,7 +4258,7 @@
         <x:v>20240308</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>110494550</x:v>
+        <x:v>110494522</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
         <x:v>20240308</x:v>
@@ -4255,7 +4270,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
         <x:v>16</x:v>
@@ -4264,22 +4279,22 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>3400033333</x:v>
+        <x:v>3400033305</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>156</x:v>
@@ -4290,7 +4305,7 @@
         <x:v>20240308</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>110494551</x:v>
+        <x:v>110494523</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
         <x:v>20240308</x:v>
@@ -4302,7 +4317,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
         <x:v>16</x:v>
@@ -4311,25 +4326,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="n">
+        <x:v>3400033306</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O70" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="P70" s="0" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="K70" s="0" t="n">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M70" s="0" t="n">
-        <x:v>3400033334</x:v>
-      </x:c>
-      <x:c r="N70" s="0" t="n">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="O70" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="P70" s="0" t="s">
-        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:16">
@@ -4337,7 +4352,7 @@
         <x:v>20240308</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>110494552</x:v>
+        <x:v>110494524</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
         <x:v>20240308</x:v>
@@ -4349,7 +4364,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
-        <x:v>356404</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
         <x:v>16</x:v>
@@ -4361,33 +4376,33 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>3400033335</x:v>
+        <x:v>3400033307</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O71" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P71" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:16">
       <x:c r="A72" s="0" t="n">
-        <x:v>20240306</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>110494385</x:v>
+        <x:v>110494525</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>20240306</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>40900</x:v>
@@ -4396,7 +4411,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
-        <x:v>356641</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
         <x:v>16</x:v>
@@ -4405,36 +4420,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>3400033224</x:v>
+        <x:v>3400033308</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O72" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P72" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:16">
       <x:c r="A73" s="0" t="n">
-        <x:v>20240304</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>110491759</x:v>
+        <x:v>110494526</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>20240304</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>40900</x:v>
@@ -4443,7 +4458,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
-        <x:v>356560</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
         <x:v>16</x:v>
@@ -4452,30 +4467,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>3400032956</x:v>
+        <x:v>3400033309</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O73" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P73" s="0" t="s">
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:16">
       <x:c r="A74" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>110491395</x:v>
+        <x:v>110494527</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>40900</x:v>
@@ -4484,7 +4505,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
-        <x:v>356582</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
         <x:v>16</x:v>
@@ -4493,36 +4514,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>3400032425</x:v>
+        <x:v>3400033310</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:16">
       <x:c r="A75" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>110491424</x:v>
+        <x:v>110494528</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>40900</x:v>
@@ -4531,7 +4552,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
-        <x:v>356845</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
         <x:v>16</x:v>
@@ -4540,36 +4561,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>3400032435</x:v>
+        <x:v>3400033311</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O75" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P75" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:16">
       <x:c r="A76" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>110491425</x:v>
+        <x:v>110494529</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>40900</x:v>
@@ -4578,7 +4599,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
-        <x:v>356845</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
         <x:v>16</x:v>
@@ -4587,36 +4608,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>3400032436</x:v>
+        <x:v>3400033312</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:16">
       <x:c r="A77" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>110490539</x:v>
+        <x:v>110494530</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>40900</x:v>
@@ -4625,7 +4646,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
-        <x:v>356426</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
         <x:v>16</x:v>
@@ -4634,36 +4655,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>3400029860</x:v>
+        <x:v>3400033313</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O77" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P77" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:16">
       <x:c r="A78" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>110490550</x:v>
+        <x:v>110494531</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>40900</x:v>
@@ -4672,7 +4693,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
-        <x:v>356426</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
         <x:v>16</x:v>
@@ -4681,7 +4702,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>20</x:v>
@@ -4690,27 +4711,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
-        <x:v>3400029877</x:v>
+        <x:v>3400033314</x:v>
       </x:c>
       <x:c r="N78" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="O78" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P78" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:16">
       <x:c r="A79" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
-        <x:v>110491039</x:v>
+        <x:v>110494533</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>40900</x:v>
@@ -4719,7 +4740,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
         <x:v>16</x:v>
@@ -4728,7 +4749,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>200</x:v>
@@ -4737,27 +4758,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M79" s="0" t="n">
-        <x:v>3400029925</x:v>
+        <x:v>3400033316</x:v>
       </x:c>
       <x:c r="N79" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:16">
       <x:c r="A80" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
-        <x:v>110491040</x:v>
+        <x:v>110494534</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
         <x:v>40900</x:v>
@@ -4766,7 +4787,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
         <x:v>16</x:v>
@@ -4775,36 +4796,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="n">
+        <x:v>3400033317</x:v>
+      </x:c>
+      <x:c r="N80" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O80" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="P80" s="0" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="K80" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="L80" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M80" s="0" t="n">
-        <x:v>3400029926</x:v>
-      </x:c>
-      <x:c r="N80" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="O80" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="P80" s="0" t="s">
-        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:16">
       <x:c r="A81" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
-        <x:v>110491041</x:v>
+        <x:v>110494535</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
         <x:v>40900</x:v>
@@ -4813,7 +4834,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
         <x:v>16</x:v>
@@ -4822,36 +4843,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="K81" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L81" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M81" s="0" t="n">
-        <x:v>3400029927</x:v>
+        <x:v>3400033318</x:v>
       </x:c>
       <x:c r="N81" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:16">
       <x:c r="A82" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
-        <x:v>110491042</x:v>
+        <x:v>110494536</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
         <x:v>40900</x:v>
@@ -4860,7 +4881,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
         <x:v>16</x:v>
@@ -4869,36 +4890,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="L82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M82" s="0" t="n">
-        <x:v>3400029928</x:v>
+        <x:v>3400033319</x:v>
       </x:c>
       <x:c r="N82" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O82" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P82" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:16">
       <x:c r="A83" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
-        <x:v>110491043</x:v>
+        <x:v>110494537</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
         <x:v>40900</x:v>
@@ -4907,7 +4928,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
         <x:v>16</x:v>
@@ -4916,36 +4937,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="L83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M83" s="0" t="n">
-        <x:v>3400029929</x:v>
+        <x:v>3400033320</x:v>
       </x:c>
       <x:c r="N83" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="O83" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="P83" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:16">
       <x:c r="A84" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
-        <x:v>110491044</x:v>
+        <x:v>110494538</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
         <x:v>40900</x:v>
@@ -4954,7 +4975,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
         <x:v>16</x:v>
@@ -4963,36 +4984,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="K84" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="L84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M84" s="0" t="n">
+        <x:v>3400033321</x:v>
+      </x:c>
+      <x:c r="N84" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="O84" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="P84" s="0" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="K84" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="L84" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M84" s="0" t="n">
-        <x:v>3400029930</x:v>
-      </x:c>
-      <x:c r="N84" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="O84" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="P84" s="0" t="s">
-        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:16">
       <x:c r="A85" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
-        <x:v>110491046</x:v>
+        <x:v>110494539</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
         <x:v>40900</x:v>
@@ -5001,7 +5022,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
         <x:v>16</x:v>
@@ -5010,36 +5031,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L85" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M85" s="0" t="n">
-        <x:v>3400029932</x:v>
+        <x:v>3400033322</x:v>
       </x:c>
       <x:c r="N85" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O85" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P85" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:16">
       <x:c r="A86" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
-        <x:v>110491047</x:v>
+        <x:v>110494540</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
         <x:v>40900</x:v>
@@ -5048,7 +5069,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>16</x:v>
@@ -5057,36 +5078,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="K86" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="L86" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M86" s="0" t="n">
+        <x:v>3400033323</x:v>
+      </x:c>
+      <x:c r="N86" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="O86" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="P86" s="0" t="s">
         <x:v>197</x:v>
-      </x:c>
-      <x:c r="K86" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="L86" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M86" s="0" t="n">
-        <x:v>3400029933</x:v>
-      </x:c>
-      <x:c r="N86" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="O86" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="P86" s="0" t="s">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:16">
       <x:c r="A87" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
-        <x:v>110491048</x:v>
+        <x:v>110494541</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
         <x:v>40900</x:v>
@@ -5095,7 +5116,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
         <x:v>16</x:v>
@@ -5104,36 +5125,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="L87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M87" s="0" t="n">
-        <x:v>3400029934</x:v>
+        <x:v>3400033324</x:v>
       </x:c>
       <x:c r="N87" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="O87" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="P87" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:16">
       <x:c r="A88" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
-        <x:v>110491049</x:v>
+        <x:v>110494542</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
         <x:v>40900</x:v>
@@ -5142,7 +5163,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
-        <x:v>356481</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>16</x:v>
@@ -5151,36 +5172,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="K88" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="L88" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M88" s="0" t="n">
+        <x:v>3400033325</x:v>
+      </x:c>
+      <x:c r="N88" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="O88" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="L88" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M88" s="0" t="n">
-        <x:v>3400029935</x:v>
-      </x:c>
-      <x:c r="N88" s="0" t="n">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="O88" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
       <x:c r="P88" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:16">
       <x:c r="A89" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
-        <x:v>110491122</x:v>
+        <x:v>110494544</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
         <x:v>40900</x:v>
@@ -5189,7 +5210,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356487</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
         <x:v>16</x:v>
@@ -5198,36 +5219,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="L89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M89" s="0" t="n">
-        <x:v>3400029960</x:v>
+        <x:v>3400033327</x:v>
       </x:c>
       <x:c r="N89" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="O89" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P89" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:16">
       <x:c r="A90" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
-        <x:v>110491123</x:v>
+        <x:v>110494546</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
         <x:v>40900</x:v>
@@ -5236,7 +5257,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G90" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H90" s="0" t="s">
         <x:v>16</x:v>
@@ -5245,36 +5266,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="K90" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L90" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M90" s="0" t="n">
-        <x:v>3400029961</x:v>
+        <x:v>3400033329</x:v>
       </x:c>
       <x:c r="N90" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O90" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="P90" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:16">
       <x:c r="A91" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
-        <x:v>110491124</x:v>
+        <x:v>110494547</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
         <x:v>40900</x:v>
@@ -5283,7 +5304,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G91" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>16</x:v>
@@ -5292,36 +5313,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M91" s="0" t="n">
-        <x:v>3400029962</x:v>
+        <x:v>3400033330</x:v>
       </x:c>
       <x:c r="N91" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O91" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
       <x:c r="P91" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:16">
       <x:c r="A92" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
-        <x:v>110491125</x:v>
+        <x:v>110494548</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
         <x:v>40900</x:v>
@@ -5330,7 +5351,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G92" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>16</x:v>
@@ -5339,36 +5360,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M92" s="0" t="n">
-        <x:v>3400029963</x:v>
+        <x:v>3400033331</x:v>
       </x:c>
       <x:c r="N92" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="O92" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="P92" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:16">
       <x:c r="A93" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
-        <x:v>110491126</x:v>
+        <x:v>110494549</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
         <x:v>40900</x:v>
@@ -5377,7 +5398,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>16</x:v>
@@ -5386,7 +5407,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
         <x:v>200</x:v>
@@ -5395,27 +5416,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M93" s="0" t="n">
-        <x:v>3400029964</x:v>
+        <x:v>3400033332</x:v>
       </x:c>
       <x:c r="N93" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="O93" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="P93" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:16">
       <x:c r="A94" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
-        <x:v>110491128</x:v>
+        <x:v>110494550</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
         <x:v>40900</x:v>
@@ -5424,7 +5445,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
         <x:v>16</x:v>
@@ -5433,36 +5454,36 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M94" s="0" t="n">
-        <x:v>3400029966</x:v>
+        <x:v>3400033333</x:v>
       </x:c>
       <x:c r="N94" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O94" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="P94" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:16">
       <x:c r="A95" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
-        <x:v>110491129</x:v>
+        <x:v>110494551</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>20240229</x:v>
+        <x:v>20240308</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
         <x:v>40900</x:v>
@@ -5471,7 +5492,7 @@
         <x:v>5004</x:v>
       </x:c>
       <x:c r="G95" s="0" t="n">
-        <x:v>356622</x:v>
+        <x:v>356404</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>16</x:v>
@@ -5480,72 +5501,301 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M95" s="0" t="n">
-        <x:v>3400029967</x:v>
+        <x:v>3400033334</x:v>
       </x:c>
       <x:c r="N95" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="O95" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="P95" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:16">
       <x:c r="A96" s="0" t="n">
+        <x:v>20240308</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="n">
+        <x:v>110494552</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="n">
+        <x:v>20240308</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="n">
+        <x:v>356404</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="K96" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L96" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M96" s="0" t="n">
+        <x:v>3400033335</x:v>
+      </x:c>
+      <x:c r="N96" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O96" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="P96" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:16">
+      <x:c r="A97" s="0" t="n">
+        <x:v>20240306</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="n">
+        <x:v>110494385</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="n">
+        <x:v>20240306</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="n">
+        <x:v>356641</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J97" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="K97" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="L97" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M97" s="0" t="n">
+        <x:v>3400033224</x:v>
+      </x:c>
+      <x:c r="N97" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="O97" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="P97" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:16">
+      <x:c r="A98" s="0" t="n">
+        <x:v>20240304</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="n">
+        <x:v>110491759</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="n">
+        <x:v>20240304</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="n">
+        <x:v>356560</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J98" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="K98" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="L98" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M98" s="0" t="n">
+        <x:v>3400032956</x:v>
+      </x:c>
+      <x:c r="N98" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:16">
+      <x:c r="A99" s="0" t="n">
         <x:v>20240229</x:v>
       </x:c>
-      <x:c r="B96" s="0" t="n">
-        <x:v>110491130</x:v>
-      </x:c>
-      <x:c r="C96" s="0" t="n">
+      <x:c r="B99" s="0" t="n">
+        <x:v>110491395</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="n">
         <x:v>20240229</x:v>
       </x:c>
-      <x:c r="D96" s="0" t="n">
-        <x:v>40900</x:v>
-      </x:c>
-      <x:c r="E96" s="0" t="n">
-        <x:v>5004</x:v>
-      </x:c>
-      <x:c r="G96" s="0" t="n">
-        <x:v>356622</x:v>
-      </x:c>
-      <x:c r="H96" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I96" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J96" s="0" t="s">
+      <x:c r="D99" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="n">
+        <x:v>356582</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J99" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="K96" s="0" t="n">
+      <x:c r="K99" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="L96" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M96" s="0" t="n">
-        <x:v>3400029968</x:v>
-      </x:c>
-      <x:c r="N96" s="0" t="n">
+      <x:c r="L99" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M99" s="0" t="n">
+        <x:v>3400032425</x:v>
+      </x:c>
+      <x:c r="N99" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="O96" s="0" t="s">
+      <x:c r="O99" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="P96" s="0" t="s">
-        <x:v>210</x:v>
+      <x:c r="P99" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:16">
+      <x:c r="A100" s="0" t="n">
+        <x:v>20240229</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="n">
+        <x:v>110491424</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="n">
+        <x:v>20240229</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="n">
+        <x:v>356845</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J100" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="K100" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="L100" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M100" s="0" t="n">
+        <x:v>3400032435</x:v>
+      </x:c>
+      <x:c r="N100" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O100" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="P100" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:16">
+      <x:c r="A101" s="0" t="n">
+        <x:v>20240229</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="n">
+        <x:v>110491425</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="n">
+        <x:v>20240229</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="n">
+        <x:v>40900</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="n">
+        <x:v>5004</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="n">
+        <x:v>356845</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J101" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="K101" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="L101" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M101" s="0" t="n">
+        <x:v>3400032436</x:v>
+      </x:c>
+      <x:c r="N101" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="O101" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="P101" s="0" t="s">
+        <x:v>225</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
